--- a/01.doc/01.需求分析矩阵/需求跟踪矩阵.xlsx
+++ b/01.doc/01.需求分析矩阵/需求跟踪矩阵.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Mail\01.doc\01.需求分析矩阵\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="176">
   <si>
     <t>修改编号</t>
   </si>
@@ -463,16 +463,7 @@
     <t>若有群组，2-6位</t>
   </si>
   <si>
-    <t>能看到邮箱地址</t>
-  </si>
-  <si>
     <t>能看到联系人昵称</t>
-  </si>
-  <si>
-    <t>直接删除，联系人不再出现被删除的联系人</t>
-  </si>
-  <si>
-    <t>UI上能显著区别星标联系人与普通联系人</t>
   </si>
   <si>
     <t>增加联系人</t>
@@ -484,10 +475,6 @@
   </si>
   <si>
     <t>更新联系人</t>
-    <phoneticPr fontId="59" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新联系人邮箱地址</t>
     <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
@@ -604,10 +591,6 @@
     <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
-    <t>联系人昵称</t>
-    <phoneticPr fontId="59" type="noConversion"/>
-  </si>
-  <si>
     <t>联系人所属群组</t>
     <phoneticPr fontId="59" type="noConversion"/>
   </si>
@@ -620,15 +603,7 @@
     <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
-    <t>添加/更新联系人所属群组</t>
-    <phoneticPr fontId="59" type="noConversion"/>
-  </si>
-  <si>
     <t>删除联系人</t>
-    <phoneticPr fontId="59" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除联系人信息</t>
     <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
@@ -637,10 +612,6 @@
   </si>
   <si>
     <t>将联系人设置为星标联系人</t>
-    <phoneticPr fontId="59" type="noConversion"/>
-  </si>
-  <si>
-    <t>星标标注</t>
     <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
@@ -683,14 +654,6 @@
   </si>
   <si>
     <t>跳转至个人信息修改窗口</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名修改</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>在信息修改页修改用户名的信息，提交之后更新用户名</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -742,10 +705,6 @@
   </si>
   <si>
     <t>直接删除，组群不再出现被被删除组群</t>
-    <phoneticPr fontId="59" type="noConversion"/>
-  </si>
-  <si>
-    <t>重命名组群</t>
     <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
@@ -857,6 +816,46 @@
   </si>
   <si>
     <t>查看邮件</t>
+    <phoneticPr fontId="59" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加个人信息</t>
+    <phoneticPr fontId="59" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="59" type="noConversion"/>
+  </si>
+  <si>
+    <t>可更改</t>
+    <phoneticPr fontId="59" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称修改</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>在信息修改页修改昵称的信息，提交之后更新昵称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人昵称</t>
+    <phoneticPr fontId="59" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人电话</t>
+    <phoneticPr fontId="59" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号或座机号</t>
+    <phoneticPr fontId="59" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人电话</t>
+    <phoneticPr fontId="59" type="noConversion"/>
+  </si>
+  <si>
+    <t>能看到邮箱地址</t>
     <phoneticPr fontId="59" type="noConversion"/>
   </si>
 </sst>
@@ -2113,6 +2112,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2158,9 +2160,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -2211,7 +2210,35 @@
     <cellStyle name="样式 1" xfId="44"/>
     <cellStyle name="注释" xfId="45" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="23"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="23"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -15883,17 +15910,17 @@
       <c r="I14" s="32"/>
     </row>
     <row r="15" spans="1:9" s="28" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
     </row>
     <row r="16" spans="1:9" s="28" customFormat="1" ht="17.399999999999999">
       <c r="A16" s="34"/>
@@ -16518,16 +16545,16 @@
       <c r="H15" s="76"/>
     </row>
     <row r="16" spans="1:9" s="77" customFormat="1" ht="45">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
     </row>
     <row r="17" spans="1:8" s="77" customFormat="1" ht="16.2">
       <c r="A17" s="78"/>
@@ -16717,15 +16744,15 @@
       <c r="A34" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
       <c r="E34" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
     </row>
     <row r="35" spans="1:8" s="70" customFormat="1" ht="18">
       <c r="A35" s="75"/>
@@ -16783,11 +16810,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:P2302"/>
+  <dimension ref="B1:P2301"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -16834,19 +16861,19 @@
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="2:16" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="110" t="s">
+      <c r="E3" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="106" t="s">
+      <c r="F3" s="107" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="38" t="s">
@@ -16863,11 +16890,11 @@
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="2:16" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="109"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="107"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="108"/>
       <c r="G4" s="40" t="s">
         <v>3</v>
       </c>
@@ -16896,23 +16923,29 @@
     <row r="5" spans="2:16" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="8"/>
       <c r="C5" s="100" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D5" s="100" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E5" s="100" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F5" s="100" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="25"/>
@@ -16926,14 +16959,20 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
       <c r="M6" s="25"/>
@@ -16946,17 +16985,23 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
       <c r="M7" s="25"/>
@@ -16970,14 +17015,20 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="25"/>
@@ -16990,17 +17041,23 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="25"/>
@@ -17013,17 +17070,23 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="25"/>
@@ -17035,20 +17098,26 @@
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="25"/>
@@ -17062,14 +17131,20 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="25"/>
@@ -17083,14 +17158,20 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
       <c r="M13" s="25"/>
@@ -17103,17 +17184,23 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
       <c r="M14" s="25"/>
@@ -17126,17 +17213,23 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="M15" s="25"/>
@@ -17150,14 +17243,20 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
       <c r="M16" s="25"/>
@@ -17171,14 +17270,20 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
       <c r="M17" s="25"/>
@@ -17188,17 +17293,23 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="25"/>
@@ -17208,17 +17319,23 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="25"/>
@@ -17226,19 +17343,27 @@
     <row r="20" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="99"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="E20" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="25"/>
@@ -17249,14 +17374,20 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="25"/>
@@ -17264,21 +17395,25 @@
     <row r="22" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="99"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>97</v>
-      </c>
+      <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="25"/>
@@ -17287,20 +17422,26 @@
       <c r="B23" s="99"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="F23" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="H23" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="25"/>
@@ -17308,19 +17449,27 @@
     <row r="24" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="99"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="E24" s="9" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="25"/>
@@ -17330,17 +17479,23 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
       <c r="M25" s="25"/>
@@ -17350,17 +17505,23 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="25"/>
@@ -17370,99 +17531,129 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
       <c r="M27" s="25"/>
     </row>
     <row r="28" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="99"/>
-      <c r="C28" s="99" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="99" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="99" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="99" t="s">
-        <v>166</v>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
       <c r="M28" s="25"/>
     </row>
-    <row r="29" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="29" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
+      <c r="C29" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="99" t="s">
+        <v>80</v>
+      </c>
       <c r="E29" s="99" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F29" s="99" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="27"/>
-    </row>
-    <row r="30" spans="2:13" ht="20.100000000000001" customHeight="1">
+        <v>132</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="25"/>
+    </row>
+    <row r="30" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B30" s="99"/>
       <c r="C30" s="99"/>
       <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
+      <c r="E30" s="9" t="s">
+        <v>171</v>
+      </c>
       <c r="F30" s="99" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="25"/>
+        <v>132</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="27"/>
     </row>
     <row r="31" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="99"/>
       <c r="C31" s="99"/>
       <c r="D31" s="99"/>
-      <c r="E31" s="99" t="s">
-        <v>114</v>
-      </c>
+      <c r="E31" s="99"/>
       <c r="F31" s="99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
       <c r="M31" s="25"/>
@@ -17471,16 +17662,24 @@
       <c r="B32" s="99"/>
       <c r="C32" s="99"/>
       <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
+      <c r="E32" s="99" t="s">
+        <v>109</v>
+      </c>
       <c r="F32" s="99" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J32" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
       <c r="M32" s="25"/>
@@ -17491,14 +17690,20 @@
       <c r="D33" s="99"/>
       <c r="E33" s="99"/>
       <c r="F33" s="99" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
       <c r="M33" s="25"/>
@@ -17506,19 +17711,23 @@
     <row r="34" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="99"/>
       <c r="C34" s="99"/>
-      <c r="D34" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="99" t="s">
-        <v>115</v>
-      </c>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
       <c r="F34" s="99" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
+        <v>78</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
       <c r="M34" s="25"/>
@@ -17527,16 +17736,24 @@
       <c r="B35" s="99"/>
       <c r="C35" s="99"/>
       <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99" t="s">
-        <v>80</v>
+      <c r="E35" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
       <c r="M35" s="25"/>
@@ -17544,17 +17761,27 @@
     <row r="36" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="99"/>
       <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99" t="s">
-        <v>168</v>
+      <c r="D36" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
       <c r="M36" s="25"/>
@@ -17562,21 +17789,23 @@
     <row r="37" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="99"/>
       <c r="C37" s="99"/>
-      <c r="D37" s="99" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="99" t="s">
-        <v>86</v>
-      </c>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
       <c r="F37" s="99" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
       <c r="M37" s="25"/>
@@ -17585,18 +17814,22 @@
       <c r="B38" s="99"/>
       <c r="C38" s="99"/>
       <c r="D38" s="99"/>
-      <c r="E38" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>170</v>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99" t="s">
+        <v>157</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J38" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
       <c r="M38" s="25"/>
@@ -17606,15 +17839,21 @@
       <c r="C39" s="99"/>
       <c r="D39" s="99"/>
       <c r="E39" s="99"/>
-      <c r="F39" s="99" t="s">
-        <v>75</v>
+      <c r="F39" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J39" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
       <c r="M39" s="25"/>
@@ -17622,19 +17861,27 @@
     <row r="40" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="99"/>
       <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
+      <c r="D40" s="99" t="s">
+        <v>82</v>
+      </c>
       <c r="E40" s="99" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" s="99" t="s">
-        <v>76</v>
+        <v>111</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I40" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J40" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
       <c r="M40" s="25"/>
@@ -17645,14 +17892,20 @@
       <c r="D41" s="99"/>
       <c r="E41" s="99"/>
       <c r="F41" s="99" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J41" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
       <c r="M41" s="25"/>
@@ -17661,20 +17914,26 @@
       <c r="B42" s="99"/>
       <c r="C42" s="99"/>
       <c r="D42" s="99" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E42" s="99" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F42" s="99" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I42" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J42" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
       <c r="M42" s="25"/>
@@ -17683,20 +17942,24 @@
       <c r="B43" s="99"/>
       <c r="C43" s="99"/>
       <c r="D43" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43" s="99" t="s">
-        <v>120</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E43" s="99"/>
       <c r="F43" s="99" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J43" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="M43" s="25"/>
@@ -17705,16 +17968,24 @@
       <c r="B44" s="99"/>
       <c r="C44" s="99"/>
       <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99" t="s">
-        <v>75</v>
+      <c r="E44" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J44" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
       <c r="M44" s="25"/>
@@ -17723,20 +17994,26 @@
       <c r="B45" s="99"/>
       <c r="C45" s="99"/>
       <c r="D45" s="9" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J45" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
       <c r="M45" s="25"/>
@@ -17744,67 +18021,81 @@
     <row r="46" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B46" s="99"/>
       <c r="C46" s="99"/>
-      <c r="D46" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>149</v>
+      <c r="D46" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="99" t="s">
+        <v>48</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J46" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K46" s="24"/>
       <c r="L46" s="24"/>
       <c r="M46" s="25"/>
     </row>
     <row r="47" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="99"/>
-      <c r="C47" s="99"/>
+      <c r="C47" s="99" t="s">
+        <v>46</v>
+      </c>
       <c r="D47" s="99" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" s="99" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" s="99" t="s">
-        <v>82</v>
+        <v>47</v>
+      </c>
+      <c r="E47" s="99"/>
+      <c r="F47" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I47" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K47" s="24"/>
       <c r="L47" s="24"/>
       <c r="M47" s="25"/>
     </row>
     <row r="48" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B48" s="99"/>
-      <c r="C48" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="99" t="s">
-        <v>47</v>
-      </c>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
       <c r="E48" s="99" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J48" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
       <c r="M48" s="25"/>
@@ -17813,16 +18104,24 @@
       <c r="B49" s="99"/>
       <c r="C49" s="99"/>
       <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="9" t="s">
-        <v>167</v>
+      <c r="E49" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="99" t="s">
+        <v>51</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J49" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K49" s="24"/>
       <c r="L49" s="24"/>
       <c r="M49" s="25"/>
@@ -17832,17 +18131,23 @@
       <c r="C50" s="99"/>
       <c r="D50" s="99"/>
       <c r="E50" s="99" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>169</v>
+        <v>53</v>
+      </c>
+      <c r="F50" s="99" t="s">
+        <v>54</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J50" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
       <c r="M50" s="25"/>
@@ -17852,17 +18157,23 @@
       <c r="C51" s="99"/>
       <c r="D51" s="99"/>
       <c r="E51" s="99" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F51" s="99" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J51" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K51" s="24"/>
       <c r="L51" s="24"/>
       <c r="M51" s="25"/>
@@ -17872,17 +18183,23 @@
       <c r="C52" s="99"/>
       <c r="D52" s="99"/>
       <c r="E52" s="99" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F52" s="99" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J52" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
       <c r="M52" s="25"/>
@@ -17892,17 +18209,23 @@
       <c r="C53" s="99"/>
       <c r="D53" s="99"/>
       <c r="E53" s="99" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F53" s="99" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J53" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
       <c r="M53" s="25"/>
@@ -17911,18 +18234,22 @@
       <c r="B54" s="99"/>
       <c r="C54" s="99"/>
       <c r="D54" s="99"/>
-      <c r="E54" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="99" t="s">
-        <v>56</v>
+      <c r="E54" s="99"/>
+      <c r="F54" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J54" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
       <c r="M54" s="25"/>
@@ -17932,17 +18259,23 @@
       <c r="C55" s="99"/>
       <c r="D55" s="99"/>
       <c r="E55" s="99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F55" s="99" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K55" s="24"/>
       <c r="L55" s="24"/>
       <c r="M55" s="25"/>
@@ -17951,16 +18284,24 @@
       <c r="B56" s="99"/>
       <c r="C56" s="99"/>
       <c r="D56" s="99"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="9" t="s">
-        <v>171</v>
+      <c r="E56" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" s="99" t="s">
+        <v>61</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J56" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
       <c r="M56" s="25"/>
@@ -17969,18 +18310,22 @@
       <c r="B57" s="99"/>
       <c r="C57" s="99"/>
       <c r="D57" s="99"/>
-      <c r="E57" s="99" t="s">
-        <v>58</v>
-      </c>
+      <c r="E57" s="99"/>
       <c r="F57" s="99" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J57" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K57" s="24"/>
       <c r="L57" s="24"/>
       <c r="M57" s="25"/>
@@ -17989,18 +18334,24 @@
       <c r="B58" s="99"/>
       <c r="C58" s="99"/>
       <c r="D58" s="99"/>
-      <c r="E58" s="99" t="s">
-        <v>60</v>
+      <c r="E58" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="F58" s="99" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H58" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I58" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J58" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
       <c r="M58" s="25"/>
@@ -18008,17 +18359,25 @@
     <row r="59" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B59" s="99"/>
       <c r="C59" s="99"/>
-      <c r="D59" s="99"/>
+      <c r="D59" s="99" t="s">
+        <v>96</v>
+      </c>
       <c r="E59" s="99"/>
-      <c r="F59" s="99" t="s">
-        <v>44</v>
+      <c r="F59" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J59" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K59" s="24"/>
       <c r="L59" s="24"/>
       <c r="M59" s="25"/>
@@ -18026,21 +18385,25 @@
     <row r="60" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B60" s="99"/>
       <c r="C60" s="99"/>
-      <c r="D60" s="99" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>176</v>
+      <c r="D60" s="99"/>
+      <c r="E60" s="99" t="s">
+        <v>97</v>
       </c>
       <c r="F60" s="99" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H60" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J60" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K60" s="24"/>
       <c r="L60" s="24"/>
       <c r="M60" s="25"/>
@@ -18049,14 +18412,24 @@
       <c r="B61" s="99"/>
       <c r="C61" s="99"/>
       <c r="D61" s="99"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
+      <c r="E61" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="F61" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I61" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J61" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K61" s="24"/>
       <c r="L61" s="24"/>
       <c r="M61" s="25"/>
@@ -18066,17 +18439,23 @@
       <c r="C62" s="99"/>
       <c r="D62" s="99"/>
       <c r="E62" s="99" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F62" s="99" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H62" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I62" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J62" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K62" s="24"/>
       <c r="L62" s="24"/>
       <c r="M62" s="25"/>
@@ -18085,18 +18464,24 @@
       <c r="B63" s="99"/>
       <c r="C63" s="99"/>
       <c r="D63" s="99"/>
-      <c r="E63" s="99" t="s">
-        <v>102</v>
+      <c r="E63" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="F63" s="99" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J63" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K63" s="24"/>
       <c r="L63" s="24"/>
       <c r="M63" s="25"/>
@@ -18104,19 +18489,25 @@
     <row r="64" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B64" s="99"/>
       <c r="C64" s="99"/>
-      <c r="D64" s="99"/>
-      <c r="E64" s="99" t="s">
-        <v>103</v>
-      </c>
-      <c r="F64" s="99" t="s">
-        <v>64</v>
+      <c r="D64" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="99"/>
+      <c r="F64" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H64" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I64" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J64" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
       <c r="M64" s="25"/>
@@ -18124,21 +18515,25 @@
     <row r="65" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B65" s="99"/>
       <c r="C65" s="99"/>
-      <c r="D65" s="99" t="s">
-        <v>104</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>172</v>
+      <c r="D65" s="99"/>
+      <c r="E65" s="99" t="s">
+        <v>101</v>
       </c>
       <c r="F65" s="99" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I65" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J65" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K65" s="24"/>
       <c r="L65" s="24"/>
       <c r="M65" s="25"/>
@@ -18147,16 +18542,24 @@
       <c r="B66" s="99"/>
       <c r="C66" s="99"/>
       <c r="D66" s="99"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="9" t="s">
-        <v>65</v>
+      <c r="E66" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="F66" s="99" t="s">
+        <v>67</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H66" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I66" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J66" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
       <c r="M66" s="25"/>
@@ -18166,17 +18569,23 @@
       <c r="C67" s="99"/>
       <c r="D67" s="99"/>
       <c r="E67" s="99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F67" s="99" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I67" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J67" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K67" s="24"/>
       <c r="L67" s="24"/>
       <c r="M67" s="25"/>
@@ -18184,19 +18593,25 @@
     <row r="68" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B68" s="99"/>
       <c r="C68" s="99"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99" t="s">
-        <v>106</v>
-      </c>
-      <c r="F68" s="99" t="s">
-        <v>67</v>
+      <c r="D68" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68" s="99"/>
+      <c r="F68" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H68" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I68" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J68" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K68" s="24"/>
       <c r="L68" s="24"/>
       <c r="M68" s="25"/>
@@ -18204,21 +18619,25 @@
     <row r="69" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B69" s="99"/>
       <c r="C69" s="99"/>
-      <c r="D69" s="99" t="s">
-        <v>107</v>
-      </c>
+      <c r="D69" s="99"/>
       <c r="E69" s="99" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F69" s="99" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I69" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J69" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K69" s="24"/>
       <c r="L69" s="24"/>
       <c r="M69" s="25"/>
@@ -18227,16 +18646,24 @@
       <c r="B70" s="99"/>
       <c r="C70" s="99"/>
       <c r="D70" s="99"/>
-      <c r="E70" s="99"/>
-      <c r="F70" s="9" t="s">
-        <v>173</v>
+      <c r="E70" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="F70" s="99" t="s">
+        <v>70</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I70" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J70" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K70" s="24"/>
       <c r="L70" s="24"/>
       <c r="M70" s="25"/>
@@ -18246,17 +18673,23 @@
       <c r="C71" s="99"/>
       <c r="D71" s="99"/>
       <c r="E71" s="99" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F71" s="99" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I71" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J71" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K71" s="24"/>
       <c r="L71" s="24"/>
       <c r="M71" s="25"/>
@@ -18266,17 +18699,23 @@
       <c r="C72" s="99"/>
       <c r="D72" s="99"/>
       <c r="E72" s="99" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F72" s="99" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H72" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I72" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J72" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K72" s="24"/>
       <c r="L72" s="24"/>
       <c r="M72" s="25"/>
@@ -18284,19 +18723,25 @@
     <row r="73" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B73" s="99"/>
       <c r="C73" s="99"/>
-      <c r="D73" s="99"/>
-      <c r="E73" s="99" t="s">
-        <v>111</v>
-      </c>
-      <c r="F73" s="99" t="s">
-        <v>71</v>
+      <c r="D73" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" s="99"/>
+      <c r="F73" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="G73" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I73" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J73" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K73" s="24"/>
       <c r="L73" s="24"/>
       <c r="M73" s="25"/>
@@ -18304,21 +18749,25 @@
     <row r="74" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B74" s="99"/>
       <c r="C74" s="99"/>
-      <c r="D74" s="99" t="s">
-        <v>72</v>
-      </c>
+      <c r="D74" s="99"/>
       <c r="E74" s="99" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F74" s="99" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G74" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H74" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I74" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J74" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K74" s="24"/>
       <c r="L74" s="24"/>
       <c r="M74" s="25"/>
@@ -18327,16 +18776,24 @@
       <c r="B75" s="99"/>
       <c r="C75" s="99"/>
       <c r="D75" s="99"/>
-      <c r="E75" s="99"/>
-      <c r="F75" s="9" t="s">
-        <v>68</v>
+      <c r="E75" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="F75" s="99" t="s">
+        <v>71</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H75" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I75" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J75" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K75" s="24"/>
       <c r="L75" s="24"/>
       <c r="M75" s="25"/>
@@ -18345,38 +18802,50 @@
       <c r="B76" s="99"/>
       <c r="C76" s="99"/>
       <c r="D76" s="99"/>
-      <c r="E76" s="99" t="s">
-        <v>110</v>
-      </c>
-      <c r="F76" s="99" t="s">
-        <v>70</v>
+      <c r="E76" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H76" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I76" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J76" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K76" s="24"/>
       <c r="L76" s="24"/>
       <c r="M76" s="25"/>
     </row>
-    <row r="77" spans="2:13" ht="20.100000000000001" customHeight="1">
+    <row r="77" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B77" s="99"/>
       <c r="C77" s="99"/>
-      <c r="D77" s="99"/>
-      <c r="E77" s="99" t="s">
-        <v>111</v>
-      </c>
-      <c r="F77" s="99" t="s">
-        <v>71</v>
+      <c r="D77" s="102"/>
+      <c r="E77" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I77" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J77" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K77" s="24"/>
       <c r="L77" s="24"/>
       <c r="M77" s="25"/>
@@ -18384,41 +18853,51 @@
     <row r="78" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B78" s="99"/>
       <c r="C78" s="99"/>
-      <c r="D78" s="118"/>
+      <c r="D78" s="101" t="s">
+        <v>139</v>
+      </c>
       <c r="E78" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>175</v>
+        <v>142</v>
+      </c>
+      <c r="F78" s="99" t="s">
+        <v>62</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H78" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I78" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J78" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K78" s="24"/>
       <c r="L78" s="24"/>
       <c r="M78" s="25"/>
     </row>
-    <row r="79" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="79" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B79" s="99"/>
       <c r="C79" s="99"/>
-      <c r="D79" s="101" t="s">
-        <v>150</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>151</v>
-      </c>
+      <c r="D79" s="99"/>
+      <c r="E79" s="9"/>
       <c r="F79" s="9" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H79" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I79" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J79" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K79" s="24"/>
       <c r="L79" s="24"/>
       <c r="M79" s="25"/>
@@ -18428,17 +18907,23 @@
       <c r="C80" s="99"/>
       <c r="D80" s="99"/>
       <c r="E80" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F80" s="99" t="s">
-        <v>62</v>
+        <v>144</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="H80" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I80" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J80" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K80" s="24"/>
       <c r="L80" s="24"/>
       <c r="M80" s="25"/>
@@ -18447,13 +18932,9 @@
       <c r="B81" s="99"/>
       <c r="C81" s="99"/>
       <c r="D81" s="99"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G81" s="24" t="s">
-        <v>142</v>
-      </c>
+      <c r="E81" s="99"/>
+      <c r="F81" s="99"/>
+      <c r="G81" s="24"/>
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
       <c r="J81" s="24"/>
@@ -18465,15 +18946,9 @@
       <c r="B82" s="99"/>
       <c r="C82" s="99"/>
       <c r="D82" s="99"/>
-      <c r="E82" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G82" s="24" t="s">
-        <v>142</v>
-      </c>
+      <c r="E82" s="99"/>
+      <c r="F82" s="99"/>
+      <c r="G82" s="24"/>
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
       <c r="J82" s="24"/>
@@ -18516,12 +18991,6 @@
       <c r="E85" s="99"/>
       <c r="F85" s="99"/>
       <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="25"/>
     </row>
     <row r="86" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B86" s="99"/>
@@ -18564,7 +19033,7 @@
       <c r="G90" s="24"/>
     </row>
     <row r="91" spans="2:13" ht="20.100000000000001" customHeight="1">
-      <c r="B91" s="99"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="99"/>
       <c r="D91" s="99"/>
       <c r="E91" s="99"/>
@@ -18590,7 +19059,7 @@
     <row r="94" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B94" s="20"/>
       <c r="C94" s="99"/>
-      <c r="D94" s="99"/>
+      <c r="D94" s="9"/>
       <c r="E94" s="99"/>
       <c r="F94" s="99"/>
       <c r="G94" s="24"/>
@@ -18598,31 +19067,30 @@
     <row r="95" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B95" s="20"/>
       <c r="C95" s="99"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="99"/>
-      <c r="F95" s="99"/>
+      <c r="D95" s="99"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
       <c r="G95" s="24"/>
     </row>
     <row r="96" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B96" s="20"/>
-      <c r="C96" s="99"/>
-      <c r="D96" s="99"/>
+      <c r="D96" s="9"/>
       <c r="E96" s="99"/>
       <c r="F96" s="99"/>
       <c r="G96" s="24"/>
     </row>
     <row r="97" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B97" s="20"/>
-      <c r="D97" s="9"/>
+      <c r="D97" s="99"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="24"/>
     </row>
     <row r="98" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B98" s="20"/>
-      <c r="D98" s="99"/>
-      <c r="E98" s="99"/>
-      <c r="F98" s="99"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="2:7" ht="20.100000000000001" customHeight="1">
@@ -18665,7 +19133,7 @@
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="24"/>
+      <c r="G104" s="22"/>
     </row>
     <row r="105" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B105" s="20"/>
@@ -18674,36 +19142,31 @@
       <c r="F105" s="9"/>
       <c r="G105" s="22"/>
     </row>
-    <row r="106" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="106" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B106" s="20"/>
-      <c r="D106" s="9"/>
+      <c r="D106" s="17"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="22"/>
     </row>
-    <row r="107" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="107" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B107" s="20"/>
-      <c r="D107" s="17"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
       <c r="G107" s="22"/>
     </row>
-    <row r="108" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="108" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B108" s="20"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
       <c r="G108" s="22"/>
     </row>
     <row r="109" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B109" s="20"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
       <c r="G109" s="22"/>
     </row>
-    <row r="110" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="110" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B110" s="20"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
       <c r="G110" s="22"/>
     </row>
     <row r="111" spans="2:7" ht="20.100000000000001" customHeight="1">
@@ -18742,7 +19205,7 @@
       <c r="B119" s="20"/>
       <c r="G119" s="22"/>
     </row>
-    <row r="120" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="120" spans="2:7">
       <c r="B120" s="20"/>
       <c r="G120" s="22"/>
     </row>
@@ -18967,7 +19430,6 @@
       <c r="G175" s="22"/>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="20"/>
       <c r="G176" s="22"/>
     </row>
     <row r="177" spans="7:7">
@@ -25344,9 +25806,6 @@
     </row>
     <row r="2301" spans="7:7">
       <c r="G2301" s="22"/>
-    </row>
-    <row r="2302" spans="7:7">
-      <c r="G2302" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -25357,11 +25816,19 @@
     <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="59" type="noConversion"/>
-  <conditionalFormatting sqref="G5:M27 H28:M85 G28:G104">
-    <cfRule type="cellIs" dxfId="2" priority="13" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H81:M84 G5:G103 I5:M80">
+    <cfRule type="cellIs" dxfId="6" priority="15" stopIfTrue="1" operator="equal">
       <formula>"○"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H80">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"○"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25373,7 +25840,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="单体测试" sqref="K4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="集成测试" sqref="L4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="系统测试" sqref="M4"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="○ ：完成_x000a_△ ：进行中_x000a_× ：未着手_x000a_N/A：不适用" sqref="G5:M27 H28:M85 G28:G104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="○ ：完成_x000a_△ ：进行中_x000a_× ：未着手_x000a_N/A：不适用" sqref="G5:G103 H5:M84">
       <formula1>"○,△,×,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -25424,19 +25891,19 @@
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="2:16" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="116" t="s">
+      <c r="E2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="113" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="38" t="s">
@@ -25453,11 +25920,11 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="2:16" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="115"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="113"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="114"/>
       <c r="G3" s="43" t="s">
         <v>3</v>
       </c>
@@ -32920,7 +33387,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G4:M35">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
